--- a/data/sata_database.xlsx
+++ b/data/sata_database.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucaL\OneDrive - CADIR LAB S.r.l\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianni\OneDrive\Desktop\ACADEMIC SIDE\APPLIED STATISTICS\Francesco_repository_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57955D27-D72F-4DA0-980F-C632E8C8CD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0DBA2-648A-4505-9ABC-06CC414BD848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9023270C-159D-414A-8685-574780E1392B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9023270C-159D-414A-8685-574780E1392B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Ricavi di competenza</t>
   </si>
@@ -66,16 +68,7 @@
     <t>Costi indir. allocati R&amp;S</t>
   </si>
   <si>
-    <t>Consuntivo</t>
-  </si>
-  <si>
-    <t>BDG</t>
-  </si>
-  <si>
     <t>CE SATA - Riservato</t>
-  </si>
-  <si>
-    <t>Dati in 000€</t>
   </si>
   <si>
     <t>Direzione, Coordinamento E Qualità</t>
@@ -113,8 +106,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -169,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -234,42 +227,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -585,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D98828-E588-4198-A4B5-F4EB18048A69}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -593,1053 +628,985 @@
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="11">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="16">
         <v>2017</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17">
         <v>2018</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17">
         <v>2019</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17">
         <v>2020</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17">
         <v>2021</v>
       </c>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <f>+B4+B5</f>
+      <c r="B2" s="5">
+        <f>+B3+B4</f>
         <v>4392.82258</v>
       </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:K3" si="0">+C4+C5</f>
-        <v>3950</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="0"/>
+      <c r="C2" s="5">
+        <v>4392.82258</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:J2" si="0">+D3+D4</f>
         <v>5124.9717000000001</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>5130</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E2" s="5">
+        <v>5124.9717000000001</v>
+      </c>
+      <c r="F2" s="5">
         <f t="shared" si="0"/>
         <v>5480.7193782539689</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" si="0"/>
-        <v>5750.3899999999994</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G2" s="5">
+        <v>5480.7193782539689</v>
+      </c>
+      <c r="H2" s="5">
         <f t="shared" si="0"/>
         <v>5732.8841599999996</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>6185.0000033333336</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I2" s="5">
+        <v>5732.8841599999996</v>
+      </c>
+      <c r="J2" s="5">
         <f t="shared" si="0"/>
         <v>6848.2870075000001</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" si="0"/>
-        <v>6110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="19">
+        <v>6848.2870075000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1916.5919000000001</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1916.5919000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2362.7853999999998</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2362.7853999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2715.1832882539684</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2715.1832882539684</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2720.1759699999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2720.1759699999998</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3616.3220799999999</v>
+      </c>
+      <c r="K3" s="20">
+        <v>3616.3220799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1916.5919000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1854.7</v>
+        <v>2476.2306800000001</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2476.2306800000001</v>
       </c>
       <c r="D4" s="2">
-        <v>2362.7853999999998</v>
+        <v>2762.1862999999998</v>
       </c>
       <c r="E4" s="2">
-        <v>2360</v>
+        <v>2762.1862999999998</v>
       </c>
       <c r="F4" s="2">
-        <v>2715.1832882539684</v>
+        <v>2765.5360900000005</v>
       </c>
       <c r="G4" s="2">
-        <v>2800</v>
+        <v>2765.5360900000005</v>
       </c>
       <c r="H4" s="2">
-        <v>2720.1759699999998</v>
+        <v>3012.7081900000003</v>
       </c>
       <c r="I4" s="2">
-        <v>3180</v>
+        <v>3012.7081900000003</v>
       </c>
       <c r="J4" s="2">
-        <v>3616.3220799999999</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2476.2306800000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2095.3000000000002</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2762.1862999999998</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2770</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2765.5360900000005</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2950.39</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3012.7081900000003</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3005.0000033333336</v>
-      </c>
-      <c r="J5" s="2">
         <v>3231.9649275000002</v>
       </c>
-      <c r="K5" s="2">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="K4" s="20">
+        <v>3231.9649275000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <f>+B7+B8+B9+B10+B11</f>
+      <c r="B5" s="4">
+        <f>+B6+B7+B8+B9+B10</f>
         <v>2576.943685661985</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" ref="C6:K6" si="1">+C7+C8+C9+C10+C11</f>
-        <v>2392.5140000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="1"/>
+      <c r="C5" s="4">
+        <v>2660.7315245990176</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:J5" si="1">+D6+D7+D8+D9+D10</f>
         <v>3037.9819629935237</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="1"/>
-        <v>3001</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E5" s="4">
+        <v>2998.0584935087722</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>3389.4704699082822</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>3371.4999950000001</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G5" s="4">
+        <v>3213.3899364007766</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>3548.4113278957743</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="1"/>
-        <v>3760.777276438334</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I5" s="4">
+        <v>3485.8691133001939</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="1"/>
         <v>4276.2742038885535</v>
       </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>3749.4162924388893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="21">
+        <v>4202.4679019996838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>873.73792211594923</v>
+      </c>
+      <c r="C6" s="1">
+        <v>925.27300925569614</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1100.1173049935237</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1078.9414105263158</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1151.4466905757379</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1099.8819445466281</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1072.4337224038884</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1201.3902424068804</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1450.6819191691561</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1406.6448763359247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>873.73792211594923</v>
+        <v>221.01310300000017</v>
       </c>
       <c r="C7" s="1">
-        <v>832</v>
+        <v>296.08736296182281</v>
       </c>
       <c r="D7" s="2">
-        <v>1100.1173049935237</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1080</v>
+        <v>270.79283799999973</v>
+      </c>
+      <c r="E7" s="1">
+        <v>270.73437245614036</v>
       </c>
       <c r="F7" s="2">
-        <v>1151.4466905757379</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1153.9999950000001</v>
+        <v>377.48568899999992</v>
+      </c>
+      <c r="G7" s="1">
+        <v>299.27463785443183</v>
       </c>
       <c r="H7" s="2">
-        <v>1072.4337224038884</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1296.1361935649491</v>
+        <v>268.10655199999968</v>
+      </c>
+      <c r="I7" s="1">
+        <v>327.63029534587031</v>
       </c>
       <c r="J7" s="2">
-        <v>1450.6819191691561</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>351.09411299999994</v>
+      </c>
+      <c r="K7" s="22">
+        <v>406.86222319517185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>221.01310300000017</v>
+        <v>43.554040000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>266.24</v>
-      </c>
-      <c r="D8" s="2">
-        <v>270.79283799999973</v>
-      </c>
-      <c r="E8" s="2">
-        <v>271</v>
-      </c>
-      <c r="F8" s="2">
-        <v>377.48568899999992</v>
-      </c>
-      <c r="G8" s="2">
-        <v>314</v>
+        <v>41.25249640063798</v>
+      </c>
+      <c r="D8" s="3">
+        <v>93.470259999999982</v>
+      </c>
+      <c r="E8" s="1">
+        <v>55.9451101754386</v>
+      </c>
+      <c r="F8" s="3">
+        <v>243.54621000000003</v>
+      </c>
+      <c r="G8" s="1">
+        <v>126.76282431413833</v>
       </c>
       <c r="H8" s="2">
-        <v>268.10655199999968</v>
-      </c>
-      <c r="I8" s="2">
-        <v>353.46839762523808</v>
+        <v>188.41811000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>204.38172297473363</v>
       </c>
       <c r="J8" s="2">
-        <v>351.09411299999994</v>
-      </c>
-      <c r="K8" s="2">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>227.70853999999997</v>
+      </c>
+      <c r="K8" s="22">
+        <v>256.67051841705984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>43.554040000000001</v>
+        <v>1435.3613305460356</v>
       </c>
       <c r="C9" s="1">
-        <v>37.094000000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>93.470259999999982</v>
-      </c>
-      <c r="E9" s="2">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3">
-        <v>243.54621000000003</v>
-      </c>
-      <c r="G9" s="2">
-        <v>133</v>
+        <v>1398.1186559808609</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1570.7744100000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1590.4395607017545</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1616.9918803325445</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1686.040873772261</v>
       </c>
       <c r="H9" s="2">
-        <v>188.41811000000001</v>
-      </c>
-      <c r="I9" s="2">
-        <v>220.5</v>
+        <v>2018.3007134918862</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1752.4668525727095</v>
       </c>
       <c r="J9" s="2">
-        <v>227.70853999999997</v>
-      </c>
-      <c r="K9" s="2">
-        <v>228.99987483158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2246.789691719398</v>
+      </c>
+      <c r="K9" s="22">
+        <v>2132.2902840515271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>1435.3613305460356</v>
+        <v>3.2772899999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1257.18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1570.7744100000002</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1592</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1616.9918803325445</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1769</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.8271499999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.998039649122807</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.4296559133173496</v>
       </c>
       <c r="H10" s="2">
-        <v>2018.3007134918862</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1890.6726852481468</v>
+        <v>1.1522300000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>2246.789691719398</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1902.4164176073091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3.2772899999999998</v>
-      </c>
-      <c r="C11" s="1">
+        <v>-5.9999999999999995E-5</v>
+      </c>
+      <c r="K10" s="22">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <v>2.8271499999999996</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.1522300000000001</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>-5.9999999999999995E-5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5">
-        <f>+B3-B6</f>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <f>+B2-B5</f>
         <v>1815.878894338015</v>
       </c>
-      <c r="C12" s="5">
-        <f t="shared" ref="C12:K12" si="2">+C3-C6</f>
-        <v>1557.4859999999999</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="2"/>
+      <c r="C11" s="12">
+        <v>1732.091055400982</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:J11" si="2">+D2-D5</f>
         <v>2086.9897370064764</v>
       </c>
-      <c r="E12" s="5">
-        <f t="shared" si="2"/>
-        <v>2129</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E11" s="12">
+        <v>2126.9132064912278</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>2091.2489083456867</v>
       </c>
-      <c r="G12" s="5">
-        <f t="shared" si="2"/>
-        <v>2378.8900049999993</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G11" s="12">
+        <v>2267.3294418531923</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>2184.4728321042253</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>2424.2227268949996</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I11" s="12">
+        <v>2247.0150466998057</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>2572.0128036114465</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" si="2"/>
-        <v>2360.5837075611107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="K11" s="23">
+        <v>2645.8191055003167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
-        <f>+B14+B15+B16+B17+B18+B19</f>
+      <c r="B12" s="4">
+        <f>+B13+B14+B15+B16+B17+B18</f>
         <v>595.50518145944375</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13:K13" si="3">+C14+C15+C16+C17+C18+C19</f>
-        <v>447</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="3"/>
+      <c r="C12" s="4">
+        <v>497.11182107848106</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:J12" si="3">+D13+D14+D15+D16+D17+D18</f>
         <v>747.06839301411935</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="3"/>
-        <v>740</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E12" s="4">
+        <v>739.27467017543859</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="3"/>
         <v>717.20024059025161</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" si="3"/>
-        <v>833.0584256325684</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G12" s="4">
+        <v>793.99126956296197</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="3"/>
         <v>544.22896656774412</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="3"/>
-        <v>824.50678384665787</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I12" s="4">
+        <v>764.23635867091241</v>
+      </c>
+      <c r="J12" s="4">
         <f t="shared" si="3"/>
         <v>588.1174487688761</v>
       </c>
-      <c r="K13" s="4">
-        <f t="shared" si="3"/>
-        <v>790</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="21">
+        <v>885.457730920622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>134.69012954057007</v>
+      </c>
+      <c r="C13" s="1">
+        <v>133.45283787341771</v>
+      </c>
+      <c r="D13" s="2">
+        <v>253.79376551130875</v>
+      </c>
+      <c r="E13" s="1">
+        <v>219.78436140350877</v>
+      </c>
+      <c r="F13" s="2">
+        <v>232.06452449382007</v>
+      </c>
+      <c r="G13" s="1">
+        <v>269.72841564587321</v>
+      </c>
+      <c r="H13" s="2">
+        <v>211.30498802962902</v>
+      </c>
+      <c r="I13" s="1">
+        <v>257.64301294449848</v>
+      </c>
+      <c r="J13" s="2">
+        <v>220.78101486371858</v>
+      </c>
+      <c r="K13" s="22">
+        <v>291.41646840425534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>134.69012954057007</v>
+        <v>56.681008559559942</v>
       </c>
       <c r="C14" s="1">
-        <v>120</v>
+        <v>44.484279291139238</v>
       </c>
       <c r="D14" s="2">
-        <v>253.79376551130875</v>
-      </c>
-      <c r="E14" s="2">
-        <v>220</v>
+        <v>43.560240557356174</v>
+      </c>
+      <c r="E14" s="1">
+        <v>59.941189473684219</v>
       </c>
       <c r="F14" s="2">
-        <v>232.06452449382007</v>
-      </c>
-      <c r="G14" s="2">
-        <v>282.99999999999994</v>
+        <v>52.876423484041752</v>
+      </c>
+      <c r="G14" s="1">
+        <v>59.092444417117122</v>
       </c>
       <c r="H14" s="2">
-        <v>211.30498802962902</v>
-      </c>
-      <c r="I14" s="2">
-        <v>277.96166666666664</v>
+        <v>45.063783258033062</v>
+      </c>
+      <c r="I14" s="1">
+        <v>53.090827831275817</v>
       </c>
       <c r="J14" s="2">
-        <v>220.78101486371858</v>
-      </c>
-      <c r="K14" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63.087035975333862</v>
+      </c>
+      <c r="K14" s="22">
+        <v>67.249954247135847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>56.681008559559942</v>
+        <v>128.8517540442177</v>
       </c>
       <c r="C15" s="1">
-        <v>40</v>
+        <v>100.08962840506329</v>
       </c>
       <c r="D15" s="2">
-        <v>43.560240557356174</v>
-      </c>
-      <c r="E15" s="2">
-        <v>60.000000000000007</v>
+        <v>88.185942643465907</v>
+      </c>
+      <c r="E15" s="1">
+        <v>119.88237894736841</v>
       </c>
       <c r="F15" s="2">
-        <v>52.876423484041752</v>
-      </c>
-      <c r="G15" s="2">
-        <v>62</v>
+        <v>71.436170493518446</v>
+      </c>
+      <c r="G15" s="1">
+        <v>90.544874510098808</v>
       </c>
       <c r="H15" s="2">
-        <v>45.063783258033062</v>
-      </c>
-      <c r="I15" s="2">
-        <v>57.277761271459283</v>
+        <v>39.093587025824078</v>
+      </c>
+      <c r="I15" s="1">
+        <v>91.230214312181914</v>
       </c>
       <c r="J15" s="2">
-        <v>63.087035975333862</v>
-      </c>
-      <c r="K15" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63.1666518669741</v>
+      </c>
+      <c r="K15" s="22">
+        <v>100.87493137070376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>128.8517540442177</v>
+        <v>76.789539999999988</v>
       </c>
       <c r="C16" s="1">
-        <v>90</v>
+        <v>74.511167812658201</v>
       </c>
       <c r="D16" s="2">
-        <v>88.185942643465907</v>
-      </c>
-      <c r="E16" s="2">
-        <v>120</v>
+        <v>107.46177269340323</v>
+      </c>
+      <c r="E16" s="1">
+        <v>119.88237894736841</v>
       </c>
       <c r="F16" s="2">
-        <v>71.436170493518446</v>
-      </c>
-      <c r="G16" s="2">
-        <v>95</v>
+        <v>121.67764402174991</v>
+      </c>
+      <c r="G16" s="1">
+        <v>131.52834566244792</v>
       </c>
       <c r="H16" s="2">
-        <v>39.093587025824078</v>
-      </c>
-      <c r="I16" s="2">
-        <v>98.424956806548479</v>
+        <v>46.879857893057014</v>
+      </c>
+      <c r="I16" s="1">
+        <v>119.33853439000887</v>
       </c>
       <c r="J16" s="2">
-        <v>63.1666518669741</v>
-      </c>
-      <c r="K16" s="2">
-        <v>90</v>
+        <v>19.038500369033468</v>
+      </c>
+      <c r="K16" s="22">
+        <v>145.70823420212767</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>76.789539999999988</v>
+        <v>56.944400000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>67</v>
+        <v>55.605349113924049</v>
       </c>
       <c r="D17" s="2">
-        <v>107.46177269340323</v>
-      </c>
-      <c r="E17" s="2">
-        <v>120</v>
+        <v>79.550709999999995</v>
+      </c>
+      <c r="E17" s="1">
+        <v>69.931387719298243</v>
       </c>
       <c r="F17" s="2">
-        <v>121.67764402174991</v>
-      </c>
-      <c r="G17" s="2">
-        <v>138.00000171781028</v>
+        <v>92.773290000000017</v>
+      </c>
+      <c r="G17" s="1">
+        <v>94.412974342420625</v>
       </c>
       <c r="H17" s="2">
-        <v>46.879857893057014</v>
-      </c>
-      <c r="I17" s="2">
-        <v>128.75</v>
+        <v>94.323509999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>102.65430283734476</v>
       </c>
       <c r="J17" s="2">
-        <v>19.038500369033468</v>
-      </c>
-      <c r="K17" s="2">
-        <v>130.00000000000003</v>
+        <v>89.15428721048184</v>
+      </c>
+      <c r="K17" s="22">
+        <v>106.47909422463175</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>56.944400000000002</v>
+        <v>141.54834931509609</v>
       </c>
       <c r="C18" s="1">
-        <v>50</v>
+        <v>88.968558582278476</v>
       </c>
       <c r="D18" s="2">
-        <v>79.550709999999995</v>
-      </c>
-      <c r="E18" s="2">
-        <v>70</v>
+        <v>174.51596160858526</v>
+      </c>
+      <c r="E18" s="1">
+        <v>149.85297368421053</v>
       </c>
       <c r="F18" s="2">
-        <v>92.773290000000017</v>
-      </c>
-      <c r="G18" s="2">
-        <v>99.058423914758279</v>
+        <v>146.37218809712147</v>
+      </c>
+      <c r="G18" s="1">
+        <v>148.68421498500433</v>
       </c>
       <c r="H18" s="2">
-        <v>94.323509999999999</v>
-      </c>
-      <c r="I18" s="2">
-        <v>110.74999</v>
+        <v>107.56324036120093</v>
+      </c>
+      <c r="I18" s="1">
+        <v>140.27946635560264</v>
       </c>
       <c r="J18" s="2">
-        <v>89.15428721048184</v>
-      </c>
-      <c r="K18" s="2">
-        <v>95</v>
+        <v>132.88995848333423</v>
+      </c>
+      <c r="K18" s="22">
+        <v>173.72904847176758</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1">
-        <v>141.54834931509609</v>
-      </c>
-      <c r="C19" s="1">
-        <v>80</v>
-      </c>
-      <c r="D19" s="2">
-        <v>174.51596160858526</v>
-      </c>
-      <c r="E19" s="2">
-        <v>150</v>
-      </c>
-      <c r="F19" s="2">
-        <v>146.37218809712147</v>
-      </c>
-      <c r="G19" s="2">
-        <v>155.99999999999997</v>
-      </c>
-      <c r="H19" s="2">
-        <v>107.56324036120093</v>
-      </c>
-      <c r="I19" s="2">
-        <v>151.34240910198341</v>
-      </c>
-      <c r="J19" s="2">
-        <v>132.88995848333423</v>
-      </c>
-      <c r="K19" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5">
-        <f>+B12-B13</f>
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <f>+B11-B12</f>
         <v>1220.3737128785713</v>
       </c>
-      <c r="C20" s="5">
-        <f t="shared" ref="C20:K20" si="4">+C12-C13</f>
-        <v>1110.4859999999999</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="4"/>
+      <c r="C19" s="12">
+        <v>1234.979234322501</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:J19" si="4">+D11-D12</f>
         <v>1339.9213439923569</v>
       </c>
-      <c r="E20" s="5">
-        <f t="shared" si="4"/>
-        <v>1389</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E19" s="12">
+        <v>1387.6385363157895</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
         <v>1374.048667755435</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="4"/>
-        <v>1545.831579367431</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G19" s="12">
+        <v>1473.3381722902304</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="4"/>
         <v>1640.2438655364813</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="4"/>
-        <v>1599.7159430483416</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="I19" s="12">
+        <v>1482.7786880288929</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="4"/>
         <v>1983.8953548425704</v>
       </c>
-      <c r="K20" s="5">
-        <f t="shared" si="4"/>
-        <v>1570.5837075611107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="K19" s="23">
+        <v>1760.3613745796947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
-        <f>+B22+B23+B24+B25+B26+B27</f>
+      <c r="B20" s="4">
+        <f>+B21+B22+B23+B24+B25+B26</f>
         <v>632.36529145517977</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21:K21" si="5">+C22+C23+C24+C25+C26+C27</f>
-        <v>524.5</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="5"/>
+      <c r="C20" s="4">
+        <v>583.30011220506333</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:J20" si="5">+D21+D22+D23+D24+D25+D26</f>
         <v>770.94436479235355</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" si="5"/>
-        <v>640</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E20" s="4">
+        <v>639.37268771929826</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="5"/>
         <v>739.99327477898282</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="5"/>
-        <v>739.5</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G20" s="4">
+        <v>704.82036526545335</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="5"/>
         <v>876.81691409540986</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="5"/>
-        <v>761.51095287137582</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="I20" s="4">
+        <v>705.84544495230364</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" si="5"/>
         <v>1057.6461653425754</v>
       </c>
-      <c r="K21" s="4">
-        <f t="shared" si="5"/>
-        <v>797</v>
+      <c r="K20" s="21">
+        <v>893.30355891612112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>142.11481145449369</v>
+      </c>
+      <c r="C21" s="1">
+        <v>150.35686400405064</v>
+      </c>
+      <c r="D21" s="2">
+        <v>118.75338376121601</v>
+      </c>
+      <c r="E21" s="1">
+        <v>129.87257719298245</v>
+      </c>
+      <c r="F21" s="2">
+        <v>93.84185909035395</v>
+      </c>
+      <c r="G21" s="1">
+        <v>128.66903219856147</v>
+      </c>
+      <c r="H21" s="2">
+        <v>120.31544253368089</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100.17572757826193</v>
+      </c>
+      <c r="J21" s="2">
+        <v>190.34050657627316</v>
+      </c>
+      <c r="K21" s="22">
+        <v>112.08325707855975</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
-        <v>142.11481145449369</v>
+        <v>132.8990233068983</v>
       </c>
       <c r="C22" s="1">
-        <v>135.19999999999999</v>
+        <v>81.072599008101278</v>
       </c>
       <c r="D22" s="2">
-        <v>118.75338376121601</v>
-      </c>
-      <c r="E22" s="2">
-        <v>130</v>
+        <v>178.0038419465676</v>
+      </c>
+      <c r="E22" s="1">
+        <v>139.86277543859649</v>
       </c>
       <c r="F22" s="2">
-        <v>93.84185909035395</v>
-      </c>
-      <c r="G22" s="2">
-        <v>135</v>
+        <v>204.13168952289831</v>
+      </c>
+      <c r="G22" s="1">
+        <v>162.02767017596628</v>
       </c>
       <c r="H22" s="2">
-        <v>120.31544253368089</v>
-      </c>
-      <c r="I22" s="2">
-        <v>108.0759453903686</v>
+        <v>267.88695025676475</v>
+      </c>
+      <c r="I22" s="1">
+        <v>235.36009977452494</v>
       </c>
       <c r="J22" s="2">
-        <v>190.34050657627316</v>
-      </c>
-      <c r="K22" s="2">
-        <v>100.00000000000001</v>
+        <v>344.01620149091895</v>
+      </c>
+      <c r="K22" s="22">
+        <v>308.22895696603928</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>132.8990233068983</v>
+        <v>72.301604556104309</v>
       </c>
       <c r="C23" s="1">
-        <v>72.900000000000006</v>
+        <v>72.509375244556963</v>
       </c>
       <c r="D23" s="2">
-        <v>178.0038419465676</v>
-      </c>
-      <c r="E23" s="2">
-        <v>140</v>
+        <v>83.416380441080676</v>
+      </c>
+      <c r="E23" s="1">
+        <v>69.931387719298243</v>
       </c>
       <c r="F23" s="2">
-        <v>204.13168952289831</v>
-      </c>
-      <c r="G23" s="2">
-        <v>170</v>
+        <v>78.366185000583329</v>
+      </c>
+      <c r="G23" s="1">
+        <v>90.544874510098808</v>
       </c>
       <c r="H23" s="2">
-        <v>267.88695025676475</v>
-      </c>
-      <c r="I23" s="2">
-        <v>253.92144290073543</v>
+        <v>102.10322063580026</v>
+      </c>
+      <c r="I23" s="1">
+        <v>69.545156399020328</v>
       </c>
       <c r="J23" s="2">
-        <v>344.01620149091895</v>
-      </c>
-      <c r="K23" s="2">
-        <v>275</v>
+        <v>52.065971507807305</v>
+      </c>
+      <c r="K23" s="22">
+        <v>89.6666056628478</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
-        <v>72.301604556104309</v>
+        <v>29.102459999999997</v>
       </c>
       <c r="C24" s="1">
-        <v>65.2</v>
+        <v>65.058258463291139</v>
       </c>
       <c r="D24" s="2">
-        <v>83.416380441080676</v>
-      </c>
-      <c r="E24" s="2">
-        <v>70</v>
+        <v>87.357078193833772</v>
+      </c>
+      <c r="E24" s="1">
+        <v>29.970594736842102</v>
       </c>
       <c r="F24" s="2">
-        <v>78.366185000583329</v>
-      </c>
-      <c r="G24" s="2">
-        <v>95</v>
+        <v>56.298451986731408</v>
+      </c>
+      <c r="G24" s="1">
+        <v>59.568996388222907</v>
       </c>
       <c r="H24" s="2">
-        <v>102.10322063580026</v>
-      </c>
-      <c r="I24" s="2">
-        <v>75.029737311098557</v>
+        <v>11.656360722613078</v>
+      </c>
+      <c r="I24" s="1">
+        <v>37.539500138216368</v>
       </c>
       <c r="J24" s="2">
-        <v>52.065971507807305</v>
-      </c>
-      <c r="K24" s="2">
-        <v>80</v>
+        <v>59.573673997358412</v>
+      </c>
+      <c r="K24" s="22">
+        <v>44.8333028314239</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>29.102459999999997</v>
+        <v>21.028809999999996</v>
       </c>
       <c r="C25" s="1">
-        <v>58.5</v>
+        <v>16.681604734177213</v>
       </c>
       <c r="D25" s="2">
-        <v>87.357078193833772</v>
-      </c>
-      <c r="E25" s="2">
-        <v>29.999999999999996</v>
+        <v>29.902019999999993</v>
+      </c>
+      <c r="E25" s="1">
+        <v>29.970594736842102</v>
       </c>
       <c r="F25" s="2">
-        <v>56.298451986731408</v>
-      </c>
-      <c r="G25" s="2">
-        <v>62.5</v>
+        <v>42.96324000000002</v>
+      </c>
+      <c r="G25" s="1">
+        <v>33.358637977404825</v>
       </c>
       <c r="H25" s="2">
-        <v>11.656360722613078</v>
-      </c>
-      <c r="I25" s="2">
-        <v>40.499999999999993</v>
+        <v>41.3206320674688</v>
+      </c>
+      <c r="I25" s="1">
+        <v>47.040237827518062</v>
       </c>
       <c r="J25" s="2">
-        <v>59.573673997358412</v>
-      </c>
-      <c r="K25" s="2">
-        <v>40</v>
+        <v>50.142196995969606</v>
+      </c>
+      <c r="K25" s="22">
+        <v>58.283293680851067</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
-        <v>21.028809999999996</v>
+        <v>234.91858213768344</v>
       </c>
       <c r="C26" s="1">
-        <v>15</v>
+        <v>197.6214107508861</v>
       </c>
       <c r="D26" s="2">
-        <v>29.902019999999993</v>
-      </c>
-      <c r="E26" s="2">
-        <v>29.999999999999996</v>
+        <v>273.51166044965555</v>
+      </c>
+      <c r="E26" s="1">
+        <v>239.76475789473682</v>
       </c>
       <c r="F26" s="2">
-        <v>42.96324000000002</v>
-      </c>
-      <c r="G26" s="2">
-        <v>35</v>
+        <v>264.39184917841578</v>
+      </c>
+      <c r="G26" s="1">
+        <v>230.6511540151991</v>
       </c>
       <c r="H26" s="2">
-        <v>41.3206320674688</v>
-      </c>
-      <c r="I26" s="2">
-        <v>50.75</v>
+        <v>333.53430787908218</v>
+      </c>
+      <c r="I26" s="1">
+        <v>216.18472323476209</v>
       </c>
       <c r="J26" s="2">
-        <v>50.142196995969606</v>
-      </c>
-      <c r="K26" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1">
-        <v>234.91858213768344</v>
-      </c>
-      <c r="C27" s="1">
-        <v>177.70000000000002</v>
-      </c>
-      <c r="D27" s="2">
-        <v>273.51166044965555</v>
-      </c>
-      <c r="E27" s="2">
-        <v>239.99999999999997</v>
-      </c>
-      <c r="F27" s="2">
-        <v>264.39184917841578</v>
-      </c>
-      <c r="G27" s="2">
-        <v>242.00000000000003</v>
-      </c>
-      <c r="H27" s="2">
-        <v>333.53430787908218</v>
-      </c>
-      <c r="I27" s="2">
-        <v>233.23382726917325</v>
-      </c>
-      <c r="J27" s="2">
         <v>361.50761477424817</v>
       </c>
-      <c r="K27" s="2">
-        <v>249.99999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6">
-        <f>+B20-B21</f>
+      <c r="K26" s="22">
+        <v>280.20814269639931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6">
+        <f>+B19-B20</f>
         <v>588.0084214233915</v>
       </c>
-      <c r="C28" s="6">
-        <f t="shared" ref="C28:K28" si="6">+C20-C21</f>
-        <v>585.98599999999988</v>
-      </c>
-      <c r="D28" s="6">
-        <f t="shared" si="6"/>
+      <c r="C27" s="13">
+        <v>651.67912211743783</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" ref="D27:J27" si="6">+D19-D20</f>
         <v>568.97697920000337</v>
       </c>
-      <c r="E28" s="6">
-        <f t="shared" si="6"/>
-        <v>749</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E27" s="13">
+        <v>748.2658485964912</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="6"/>
         <v>634.05539297645214</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="6"/>
-        <v>806.331579367431</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="G27" s="13">
+        <v>768.51780702477708</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" si="6"/>
         <v>763.42695144107142</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="6"/>
-        <v>838.20499017696579</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="I27" s="13">
+        <v>776.93324307658941</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="6"/>
         <v>926.24918949999505</v>
       </c>
-      <c r="K28" s="6">
-        <f t="shared" si="6"/>
-        <v>773.58370756111071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="K27" s="24">
+        <v>867.05781566357348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
